--- a/Datasets/word count figures (boxplot)/word count compared between all domains.xlsx
+++ b/Datasets/word count figures (boxplot)/word count compared between all domains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\github\bachelorthesis\Datasets\word count figures (boxplot)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B135BE-EC2F-4695-B20C-1CCC4892F04D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8CAF69-07A8-4C18-B3A8-5C9859E2B308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="3135" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -596,7 +596,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -609,7 +609,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1600"/>
                   <a:t>Domain</a:t>
                 </a:r>
               </a:p>
@@ -628,7 +628,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -666,7 +666,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -692,6 +692,8 @@
         <c:axId val="480142911"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="670"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -716,7 +718,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -729,7 +731,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1600"/>
                   <a:t>Word count</a:t>
                 </a:r>
               </a:p>
@@ -748,7 +750,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -780,7 +782,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1395,15 +1397,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>124104</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>481292</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>84043</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1696,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
